--- a/data/trans_bre/P33A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-13.94099397474033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.722649709034755</v>
+        <v>-5.722649709034766</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1642251578665121</v>
@@ -627,7 +627,7 @@
         <v>-0.1805150611621028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.06170940260704472</v>
+        <v>-0.06170940260704483</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-20.97649413662241</v>
+        <v>-21.4216113345144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.81472699976285</v>
+        <v>-21.31192095803945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.364569425879687</v>
+        <v>-9.565566929370274</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2408556780664906</v>
+        <v>-0.2444515563690316</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2682997288279697</v>
+        <v>-0.2660758154290209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.09885764837402031</v>
+        <v>-0.1022227851190565</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.825704158368183</v>
+        <v>-6.852518430622753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.491707130361849</v>
+        <v>-6.633522088097673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.430273664246378</v>
+        <v>-1.572402325700462</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.0824948407435728</v>
+        <v>-0.08234959004919502</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.07639698866607052</v>
+        <v>-0.09273471978683037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.01543746038994285</v>
+        <v>-0.01777282467702864</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-20.16700318876947</v>
+        <v>-19.81684174888536</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.25527222300178</v>
+        <v>-14.55144368394875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-15.50924355637598</v>
+        <v>-15.59911745186708</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2353013124577414</v>
+        <v>-0.2310082027987979</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1522011410746657</v>
+        <v>-0.1571873772962895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1805847360423546</v>
+        <v>-0.1840343458422759</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-8.920224337020963</v>
+        <v>-8.982272633991832</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.707224134342423</v>
+        <v>-6.495342514753066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4.805468209734758</v>
+        <v>-5.024353453494101</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1093944660149786</v>
+        <v>-0.1099507349381161</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.06386268522460849</v>
+        <v>-0.07103746303903946</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.05920287935953489</v>
+        <v>-0.06549670695591533</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-11.91748563321459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.141501222077236</v>
+        <v>-2.141501222077224</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1261617640535607</v>
@@ -791,7 +791,7 @@
         <v>-0.1307986658319522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.02583052876221138</v>
+        <v>-0.02583052876221125</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.36917392928359</v>
+        <v>-16.33073619850806</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.29203996904353</v>
+        <v>-17.26582037509306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.949833836458046</v>
+        <v>-7.871695366208323</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1985337147965175</v>
+        <v>-0.1895889546146537</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1851569883865926</v>
+        <v>-0.1901692467709466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08174511615516364</v>
+        <v>-0.09079296972095693</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.598398753864145</v>
+        <v>-4.497503348547422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.480204273599923</v>
+        <v>-6.728678794104516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.521764288779667</v>
+        <v>2.883017630438683</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.05594097014263427</v>
+        <v>-0.05485074062143263</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.07307324045721224</v>
+        <v>-0.07663364126083114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0429858367545928</v>
+        <v>0.03546046572859265</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-15.48449264437255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-9.763919600740856</v>
+        <v>-9.763919600740845</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2410194468421956</v>
@@ -873,7 +873,7 @@
         <v>-0.1940261971275929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1212980857424016</v>
+        <v>-0.1212980857424015</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-25.51368992058202</v>
+        <v>-25.20127786554522</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-21.72260029976866</v>
+        <v>-21.47002542030966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.07666840333825</v>
+        <v>-16.3143436957103</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3169921912637865</v>
+        <v>-0.3135860048514566</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2634033620460685</v>
+        <v>-0.2628804003399612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1929157452884727</v>
+        <v>-0.1956800113191975</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.75992990644919</v>
+        <v>-12.25873922392237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.956014366350514</v>
+        <v>-8.910744494829057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.246343517803534</v>
+        <v>-3.19241396235374</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1561422522719922</v>
+        <v>-0.1625141637792066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.117773309298264</v>
+        <v>-0.1136097969932904</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.044140426817214</v>
+        <v>-0.04241318376314623</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-0.1108090677944706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.940620671472217</v>
+        <v>-4.940620671472229</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.210772179427754</v>
@@ -955,7 +955,7 @@
         <v>-0.001434038329626281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.0535814733844816</v>
+        <v>-0.05358147338448172</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.83618970261127</v>
+        <v>-26.31923060819543</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.550201701040585</v>
+        <v>-8.67092656725403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.406488805001889</v>
+        <v>-9.165752233727119</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2885520407682065</v>
+        <v>-0.2907618630420833</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1066379583482128</v>
+        <v>-0.1067444608312725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1006151594946654</v>
+        <v>-0.09808341805547284</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-11.00078780899541</v>
+        <v>-10.31181355254542</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.87968858143976</v>
+        <v>7.672571361361939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6866458590672777</v>
+        <v>-0.6492101332862034</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1286998657512478</v>
+        <v>-0.1188305071554233</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1077867896917976</v>
+        <v>0.1085187096007323</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.007507342604347597</v>
+        <v>-0.007362845956545042</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>-11.57873253883086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-8.93152968586406</v>
+        <v>-8.931529685864081</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1159124255629824</v>
@@ -1037,7 +1037,7 @@
         <v>-0.1363819720465126</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1105053164592713</v>
+        <v>-0.1105053164592715</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-16.6288759542336</v>
+        <v>-17.03918939180314</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-18.77038754759175</v>
+        <v>-18.50060434755631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-14.65281148395145</v>
+        <v>-14.6723253865381</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1928950257755552</v>
+        <v>-0.1962224646564756</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2127388981103413</v>
+        <v>-0.2122719172580247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1779645356043765</v>
+        <v>-0.176267199724757</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-3.442534325081287</v>
+        <v>-2.492111200754251</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-4.234406640938627</v>
+        <v>-4.507624316513235</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3.064791650315469</v>
+        <v>-2.449155867355909</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.04332166286812</v>
+        <v>-0.03087927441266622</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05055201576922468</v>
+        <v>-0.05511523582834531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04062545130453768</v>
+        <v>-0.03303132595157174</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>-9.509146930734335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.56983651727111</v>
+        <v>-10.5698365172711</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.1249468278879015</v>
@@ -1119,7 +1119,7 @@
         <v>-0.1151571494911417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.1290065469679201</v>
+        <v>-0.12900654696792</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.46989950567919</v>
+        <v>-15.20346638664607</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.85588149415441</v>
+        <v>-14.05215331728191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.16288113411807</v>
+        <v>-15.05566321970255</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1682961067671949</v>
+        <v>-0.1745812277206411</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1653806937714899</v>
+        <v>-0.1681338838721659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1802202349643953</v>
+        <v>-0.1778865803378243</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.089437708765847</v>
+        <v>-6.56414349617329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.180109556776576</v>
+        <v>-4.837836961105066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.07974757365047</v>
+        <v>-5.734780973427251</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.07348028276032278</v>
+        <v>-0.07881515949261464</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.05237818290576511</v>
+        <v>-0.06150730479247454</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.07765624919566727</v>
+        <v>-0.07159746547862121</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>-9.963385106500489</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-11.38503024540676</v>
+        <v>-11.38503024540675</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05809504494536148</v>
@@ -1201,7 +1201,7 @@
         <v>-0.1189668054537702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1435741289403178</v>
+        <v>-0.1435741289403177</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-8.914920201517983</v>
+        <v>-8.642308845753938</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.9267999718127</v>
+        <v>-14.60090888499046</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-15.65045694616789</v>
+        <v>-15.12369630378896</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.100712182310054</v>
+        <v>-0.09706453393802679</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.162630964918231</v>
+        <v>-0.1699049801870887</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1944000383480907</v>
+        <v>-0.1860456003239806</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.296486081436536</v>
+        <v>-1.279288649043696</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-5.961977367633087</v>
+        <v>-5.969180739969873</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-8.002075503804186</v>
+        <v>-7.413772076570588</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01535805032683864</v>
+        <v>-0.01493261698332638</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.07238562918394734</v>
+        <v>-0.07183385587203409</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1020573880518482</v>
+        <v>-0.09664820272141698</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>-10.51577305723495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-8.971357129223412</v>
+        <v>-8.971357129223422</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>-0.1359402264186633</v>
@@ -1283,7 +1283,7 @@
         <v>-0.1249172200556938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>-0.108195088189943</v>
+        <v>-0.1081950881899432</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.47114901441861</v>
+        <v>-13.411424468717</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.63472579070764</v>
+        <v>-12.66958610177505</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.01706999398074</v>
+        <v>-10.67067676172188</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.156755470377942</v>
+        <v>-0.1561122301184295</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1483444515659166</v>
+        <v>-0.1497864864169711</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1312232740311873</v>
+        <v>-0.1270947881978949</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-9.617953926156012</v>
+        <v>-9.6446334132087</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.640745488659787</v>
+        <v>-8.669679987318997</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.052879884267979</v>
+        <v>-7.124481311947176</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.1139234821533009</v>
+        <v>-0.1141961212971651</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.102820858597931</v>
+        <v>-0.104332779518391</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.08615785327754139</v>
+        <v>-0.08694492195212904</v>
       </c>
     </row>
     <row r="31">
